--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,144 +424,164 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Linux</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>FreeBSD equivalent</t>
+          <t>grid</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Usage</t>
+          <t>CTA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GPU (ms)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Simulation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>enqueue_task</t>
+          <t>RPES</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sched_add for new threads sched_wakeup for woken up threads</t>
+          <t>(65535,1,1)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Enqueue a thread in a runqueue</t>
+          <t>(64,1,1)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.524</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>333641 &gt; 3.8 days</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dequeue_task</t>
+          <t>TPACF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sched_rem</t>
+          <t>(201,1,1)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Remove a thread from a runqueue</t>
+          <t>(256,1,1)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1484125 &gt; 17 days</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>yield_task</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sched_relinquish</t>
+          <t>(480,1,1)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yield the CPU back to the scheduler</t>
+          <t>(128,1,1)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.918</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1038931 &gt; 12 days</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pick_next_task</t>
+          <t>PNS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sched_choose</t>
+          <t>(256,1,1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Select the next task to be scheduled</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>put_prev_task</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sched_switch</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Update statistics about the task that just ran</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>select_task_rq</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>sched_pickcpu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Choose the CPU on which a new (or waking up) thread should be placed</t>
+          <t>(256,1,1)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.699</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1019169 &gt; 11 days</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="D4"/>
     <mergeCell ref="A4"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="B6"/>
+    <mergeCell ref="D3"/>
     <mergeCell ref="B5"/>
+    <mergeCell ref="D5"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="C6"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="D1"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="A6"/>
+    <mergeCell ref="E5"/>
     <mergeCell ref="C4"/>
-    <mergeCell ref="A7"/>
+    <mergeCell ref="E4"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
+    <mergeCell ref="E1"/>
+    <mergeCell ref="D2"/>
     <mergeCell ref="B1"/>
     <mergeCell ref="A3"/>
     <mergeCell ref="A2"/>
     <mergeCell ref="C2"/>
+    <mergeCell ref="E2"/>
     <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,164 +424,144 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>grid</t>
+          <t>FreeBSD equivalent</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>CTA</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GPU (ms)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Simulation</t>
+          <t>Usage</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RPES</t>
+          <t>enqueue_task</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(65535,1,1)</t>
+          <t>sched_add for new threads sched_wakeup for woken up threads</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(64,1,1)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.524</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>333641 &gt; 3.8 days</t>
+          <t>Enqueue a thread in a runqueue</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TPACF</t>
+          <t>dequeue_task</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(201,1,1)</t>
+          <t>sched_rem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(256,1,1)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.054</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1484125 &gt; 17 days</t>
+          <t>Remove a thread from a runqueue</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>yield_task</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(480,1,1)</t>
+          <t>sched_relinquish</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(128,1,1)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.918</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1038931 &gt; 12 days</t>
+          <t>Yield the CPU back to the scheduler</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PNS</t>
+          <t>pick_next_task</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(256,1,1)</t>
+          <t>sched_choose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(256,1,1)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.699</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1019169 &gt; 11 days</t>
+          <t>Select the next task to be scheduled</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>put_prev_task</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sched_switch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Update statistics about the task that just ran</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>select_task_rq</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sched_pickcpu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Choose the CPU on which a new (or waking up) thread should be placed</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D4"/>
+  <mergeCells count="21">
     <mergeCell ref="A4"/>
-    <mergeCell ref="D3"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="B6"/>
     <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="D1"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="C6"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="E5"/>
+    <mergeCell ref="A6"/>
     <mergeCell ref="C4"/>
-    <mergeCell ref="E4"/>
+    <mergeCell ref="A7"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="D2"/>
     <mergeCell ref="B1"/>
     <mergeCell ref="A3"/>
     <mergeCell ref="A2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
     <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,147 +422,187 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
-          <t>Linux</t>
+          <t>..</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>FreeBSD equivalent</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Usage</t>
-        </is>
-      </c>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>enqueue_task</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sched_add for new threads sched_wakeup for woken up threads</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Enqueue a thread in a runqueue</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>dequeue_task</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sched_rem</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Remove a thread from a runqueue</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>yield_task</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sched_relinquish</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Yield the CPU back to the scheduler</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>pick_next_task</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sched_choose</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Select the next task to be scheduled</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>put_prev_task</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sched_switch</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Update statistics about the task that just ran</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>select_task_rq</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>sched_pickcpu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Choose the CPU on which a new (or waking up) thread should be placed</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="80">
+    <mergeCell ref="I8"/>
     <mergeCell ref="A4"/>
+    <mergeCell ref="H3"/>
     <mergeCell ref="C7"/>
+    <mergeCell ref="J3"/>
     <mergeCell ref="B6"/>
+    <mergeCell ref="G1"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="F1"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="J6"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="I1"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="J2"/>
     <mergeCell ref="B5"/>
-    <mergeCell ref="B4"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="E1"/>
+    <mergeCell ref="B1"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="J4"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="H1"/>
+    <mergeCell ref="J1"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="A8"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="C8"/>
     <mergeCell ref="C3"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="E3"/>
     <mergeCell ref="B7"/>
-    <mergeCell ref="C6"/>
+    <mergeCell ref="D1"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="C1"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="F7"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="A5"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,187 +422,147 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr"/>
-      <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr"/>
-      <c r="J1" t="inlineStr"/>
+          <t>FreeBSD equivalent</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>enqueue_task</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sched_add for new threads sched_wakeup for woken up threads</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Enqueue a thread in a runqueue</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dequeue_task</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sched_rem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Remove a thread from a runqueue</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>yield_task</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sched_relinquish</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yield the CPU back to the scheduler</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pick_next_task</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sched_choose</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Select the next task to be scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>put_prev_task</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sched_switch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Update statistics about the task that just ran</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>select_task_rq</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sched_pickcpu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Choose the CPU on which a new (or waking up) thread should be placed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="I8"/>
+  <mergeCells count="21">
     <mergeCell ref="A4"/>
-    <mergeCell ref="H3"/>
     <mergeCell ref="C7"/>
-    <mergeCell ref="J3"/>
     <mergeCell ref="B6"/>
-    <mergeCell ref="G1"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="H5"/>
-    <mergeCell ref="F1"/>
+    <mergeCell ref="B5"/>
     <mergeCell ref="B4"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="I2"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="J6"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="H7"/>
-    <mergeCell ref="J7"/>
-    <mergeCell ref="A5"/>
-    <mergeCell ref="I1"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="I4"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="J5"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="J4"/>
-    <mergeCell ref="I3"/>
-    <mergeCell ref="D7"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="G5"/>
-    <mergeCell ref="I5"/>
-    <mergeCell ref="D8"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="I6"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="B7"/>
     <mergeCell ref="C6"/>
-    <mergeCell ref="H1"/>
-    <mergeCell ref="J1"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="G7"/>
-    <mergeCell ref="I7"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="D4"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="D1"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="F7"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="H2"/>
+    <mergeCell ref="B1"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,145 +424,57 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Linux</t>
+          <t>Pierre Sermanet</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>FreeBSD equivalent</t>
+          <t>Scott Reed</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Usage</t>
+          <t>Dragomir Anguelov</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Dumitru Erhan</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>enqueue_task</t>
+          <t>Google Inc.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sched_add for new threads sched_wakeup for woken up threads</t>
+          <t>University of Michigan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Enqueue a thread in a runqueue</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>dequeue_task</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sched_rem</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Remove a thread from a runqueue</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>yield_task</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sched_relinquish</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Yield the CPU back to the scheduler</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>pick_next_task</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sched_choose</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Select the next task to be scheduled</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>put_prev_task</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sched_switch</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Update statistics about the task that just ran</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>select_task_rq</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>sched_pickcpu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Choose the CPU on which a new (or waking up) thread should be placed</t>
+          <t>Google Inc.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Google Inc.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A4"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="C6"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="C5"/>
+  <mergeCells count="8">
+    <mergeCell ref="B1"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,56 +424,44 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Pierre Sermanet</t>
+          <t>task</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Scott Reed</t>
+          <t>condition</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Dragomir Anguelov</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Dumitru Erhan</t>
+          <t>stimuli</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Google Inc.</t>
+          <t>protosyntax protosyntax lexical lexical</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>natural unnatural natural unnatural</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Google Inc.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Google Inc.</t>
+          <t>4She1 went1 to1 jail4 &lt;PAUSE&gt; for1 what1 appeared1 to1 be1 a1 murder4 4She1 went1 to1 jail4 for1 what1 appeared1 to1 &lt;PAUSE&gt; be1 a1 murder4 4She1 went1 &lt;PAUSE&gt; to1 jail4 for1 what1 appeared1 to1 be1 a1 murder4 4She1 went1 to1 jail4 for1 what1 a-&lt;PAUSE&gt; -ppeared1 to1 be1 a1 murder4</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="B1"/>
-    <mergeCell ref="D1"/>
     <mergeCell ref="C1"/>
+    <mergeCell ref="B2"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="B2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
     <mergeCell ref="A1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,44 +424,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>Pierre Sermanet</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>condition</t>
+          <t>Scott Reed</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>stimuli</t>
+          <t>Dragomir Anguelov</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Dumitru Erhan</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>protosyntax protosyntax lexical lexical</t>
+          <t>Google Inc.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>natural unnatural natural unnatural</t>
+          <t>University of Michigan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4She1 went1 to1 jail4 &lt;PAUSE&gt; for1 what1 appeared1 to1 be1 a1 murder4 4She1 went1 to1 jail4 for1 what1 appeared1 to1 &lt;PAUSE&gt; be1 a1 murder4 4She1 went1 &lt;PAUSE&gt; to1 jail4 for1 what1 appeared1 to1 be1 a1 murder4 4She1 went1 to1 jail4 for1 what1 a-&lt;PAUSE&gt; -ppeared1 to1 be1 a1 murder4</t>
+          <t>Google Inc.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Google Inc.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="B1"/>
+    <mergeCell ref="D1"/>
     <mergeCell ref="C1"/>
+    <mergeCell ref="A2"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="A2"/>
     <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
     <mergeCell ref="A1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,56 +424,64 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Pierre Sermanet</t>
+          <t>Shuo Sun∗</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Scott Reed</t>
+          <t>Francisco Guzman´</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Dragomir Anguelov</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Dumitru Erhan</t>
+          <t>Lucia Specia</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Google Inc.</t>
+          <t>Johns Hopkins University</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>Facebook AI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Google Inc.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Google Inc.</t>
+          <t>Imperial College London</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ssun32@jhu.edu</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fguzman@fb.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>l.specia@imperial.ac.uk</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B1"/>
-    <mergeCell ref="D1"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="A3"/>
     <mergeCell ref="C1"/>
+    <mergeCell ref="B2"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="B2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
+    <mergeCell ref="B3"/>
     <mergeCell ref="A1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,57 +424,145 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Pierre Sermanet</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Scott Reed</t>
+          <t>FreeBSD equivalent</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Dragomir Anguelov</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Dumitru Erhan</t>
+          <t>Usage</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Google Inc.</t>
+          <t>enqueue_task</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>sched_add for new threads sched_wakeup for woken up threads</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Google Inc.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Google Inc.</t>
+          <t>Enqueue a thread in a runqueue</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dequeue_task</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sched_rem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Remove a thread from a runqueue</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>yield_task</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sched_relinquish</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yield the CPU back to the scheduler</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pick_next_task</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sched_choose</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Select the next task to be scheduled</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>put_prev_task</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sched_switch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Update statistics about the task that just ran</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>select_task_rq</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sched_pickcpu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Choose the CPU on which a new (or waking up) thread should be placed</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="21">
+    <mergeCell ref="A4"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="A1"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="B2"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="C1"/>
+    <mergeCell ref="A3"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="B2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="A1"/>
+    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,307 +424,69 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Method</t>
+          <t>Gangmuk Lim</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Jeongseob Ahn</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>θ∆</t>
+          <t>Wencong Xiao</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ConvAI2</t>
+          <t>Youngjin Kwon</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>WoW</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ED</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BST</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Average</t>
+          <t>Myeongjae Jeon</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>UNIST</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+ 0.216×
-:selected:</t>
+          <t>Ajou University</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.4 %</t>
+          <t>Alibaba Group</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.8698</t>
+          <t>KAIST</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.9129</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.6255</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7413</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.7874</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>+ 4.0 ×
-:selected:</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>100 %</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.8855</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.917</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.6267</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7838</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.8032</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MT+FT</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>+ 2.0 ×</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>100 %</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.8878</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.9274</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.6241</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8241</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.8158</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ada</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>+ 0.075×</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.87%</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.888</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.9177</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.6204</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7662</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.7981</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AdaHIT</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>+ 0.112×</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4.2 %</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.8914</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.9193</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.6358</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8167</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.8158</t>
+          <t>UNIST</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="D4"/>
-    <mergeCell ref="A4"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="H3"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="G1"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="H5"/>
-    <mergeCell ref="F1"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="E3"/>
+  <mergeCells count="10">
+    <mergeCell ref="B1"/>
     <mergeCell ref="D1"/>
-    <mergeCell ref="C6"/>
-    <mergeCell ref="H1"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="C5"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="E1"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="A5"/>
-    <mergeCell ref="G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_0.xlsx
+++ b/table_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,67 +424,73 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Gangmuk Lim</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Jeongseob Ahn</t>
-        </is>
-      </c>
+          <t>ARTIFACT EVALUATED</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Wencong Xiao</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Youngjin Kwon</t>
-        </is>
-      </c>
+          <t>ARTIFACT EVALUATED</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Myeongjae Jeon</t>
+          <t>ARTIFACT EVALUATED</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UNIST</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ajou University</t>
+          <t>&gt;usenix ASSOCIATION</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alibaba Group</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>KAIST</t>
-        </is>
-      </c>
+          <t>usenix ASSOCIATION</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UNIST</t>
+          <t>&gt;usenix ASSOCIATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AVAILABLE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FUNCTIONAL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>REPRODUCED</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="B1"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="E3"/>
     <mergeCell ref="D1"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="A2"/>
     <mergeCell ref="E1"/>
-    <mergeCell ref="B2"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="D2"/>
+    <mergeCell ref="B3"/>
     <mergeCell ref="E2"/>
     <mergeCell ref="A1"/>
   </mergeCells>
